--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.974800000000004</v>
+        <v>-7.873900000000004</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +561,10 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.91769999999999</v>
+        <v>-13.4943</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.092100000000002</v>
+        <v>-8.095599999999999</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.897199999999989</v>
+        <v>-7.746999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.5517</v>
+        <v>-12.65</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -659,10 +659,10 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.3358</v>
+        <v>-13.16020000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.207699999999999</v>
+        <v>-8.016199999999998</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.23359999999999</v>
+        <v>-11.40999999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.11710000000001</v>
+        <v>-12.0158</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.090000000000003</v>
+        <v>-8.003800000000002</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.968699999999999</v>
+        <v>-7.845999999999993</v>
       </c>
     </row>
     <row r="25">
@@ -799,10 +799,10 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.1073</v>
+        <v>-12.8635</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.176600000000002</v>
+        <v>-7.9683</v>
       </c>
     </row>
     <row r="27">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.30149999999999</v>
+        <v>-12.7042</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.28800000000001</v>
+        <v>-10.95650000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.010600000000004</v>
+        <v>-8.058299999999997</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.62280000000001</v>
+        <v>-12.2948</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.741899999999994</v>
+        <v>-8.626599999999994</v>
       </c>
     </row>
     <row r="36">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.9591</v>
+        <v>-11.79500000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.359300000000002</v>
+        <v>-7.220800000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.97289999999999</v>
+        <v>-13.51299999999998</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.491899999999996</v>
+        <v>-7.307799999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.924600000000002</v>
+        <v>-7.941600000000005</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.931100000000004</v>
+        <v>-7.891000000000004</v>
       </c>
     </row>
     <row r="53">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.57600000000001</v>
+        <v>-13.4761</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.80119999999999</v>
+        <v>-13.95579999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.275399999999999</v>
+        <v>-7.241199999999997</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.361299999999996</v>
+        <v>-7.271799999999996</v>
       </c>
     </row>
     <row r="68">
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.997</v>
+        <v>-10.8785</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.071300000000001</v>
+        <v>-8.020700000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.58600000000001</v>
+        <v>-12.9172</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.2174</v>
+        <v>-12.2088</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.398299999999999</v>
+        <v>-8.2104</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.569099999999999</v>
+        <v>-8.305099999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.7016</v>
+        <v>-11.8461</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.6337</v>
+        <v>-13.85609999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.192900000000002</v>
+        <v>-8.253</v>
       </c>
     </row>
     <row r="92">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.21269999999999</v>
+        <v>-10.22779999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1793,10 +1793,10 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.8288</v>
+        <v>-14.13329999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.187300000000008</v>
+        <v>-8.040400000000004</v>
       </c>
     </row>
     <row r="98">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.328800000000005</v>
+        <v>-8.205000000000002</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.785</v>
+        <v>-7.712699999999997</v>
       </c>
     </row>
     <row r="105">
